--- a/biology/Biologie cellulaire et moléculaire/Boîte_TATA/Boîte_TATA.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Boîte_TATA/Boîte_TATA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bo%C3%AEte_TATA</t>
+          <t>Boîte_TATA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La boîte TATA (TATA box ou Goldberg-Hogness box en anglais)[1] est une séquence d'ADN (un élément cis-régulateur) présente au niveau de la séquence promotrice d'une partie des gènes des eucaryotes [2],[3],[4],[5]. Cette séquence d'ADN codée TATA se situe à environ 25 nucléotides en amont du premier nucléotide transcrit (N+1). Cette séquence sert en partie de lieu de reconnaissance à l'ARN polymérase chez les eucaryotes.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La boîte TATA (TATA box ou Goldberg-Hogness box en anglais) est une séquence d'ADN (un élément cis-régulateur) présente au niveau de la séquence promotrice d'une partie des gènes des eucaryotes . Cette séquence d'ADN codée TATA se situe à environ 25 nucléotides en amont du premier nucléotide transcrit (N+1). Cette séquence sert en partie de lieu de reconnaissance à l'ARN polymérase chez les eucaryotes.
 Chez les procaryotes, il existe aussi un autre ensemble de séquence jouant un rôle similaire. Il est composé d'une séquence situé à 35 nucléotides en amont du premier transcrit : on l'appelle « -35 box ». Et d'une séquence située en -10 appelée « -10 box » ou boîte de Pribnow. La boîte TATAAT (-10) commence donc 10 nucléotides avant le premier transcrit.
 Localisation de la boîte de Pribnow et de la « -35 box » sur un promoteur procaryote :
    &lt;-- amont                                                aval --&gt;
